--- a/biology/Botanique/Croatina/Croatina.xlsx
+++ b/biology/Botanique/Croatina/Croatina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le croatina est un cépage italien de raisins noir.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage Croatina  provient du nord de l'Italie. Il est connu depuis le IXe siècle.
 Il est classé cépage d'appoint en DOC Bramaterra, Cisterna d'Asti, Colline Novaresi, Coste della Sesia, Oltrepò pavese, San Colombano al Lambro, Colli di Parma, Colli di Scandiano e di Canossa, Colli Piacentini, Barbacarlo.
@@ -546,7 +560,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau légèrement cotonneux, blanc verdâtre.
 Jeunes feuilles aranéeux à plages bronzées.
@@ -578,7 +594,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive: 35 jours après le chasselas. 
 </t>
@@ -609,7 +627,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont grandes et les baies sont de taille moyenne. La grappe est cylindro-conique. Le cépage est de très bonne vigueur et d'une fertilité bonne. Il est sensible aux gelèes d'hiver.
 Il donne des vins rouges secs et tanniques qui peuvent vieillir quelques années.
@@ -641,7 +661,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le croatina est connu sous les noms de : bonarda di Rovescala, corvina, croata, croatino, croatta, croattina, crovalino, crovattina, crovettina, hrvatica, karbonera, nebbiolo di Gattinara,  uga del zio, neretto, uva Vermiglia, 
 </t>
